--- a/NAME.ID.xlsx
+++ b/NAME.ID.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Emp_ID</t>
   </si>
@@ -46,43 +46,22 @@
     <t>LeavingDate</t>
   </si>
   <si>
-    <t>Ahmed</t>
-  </si>
-  <si>
-    <t>ELdarandaly</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>R</t>
+    <t>Roaa</t>
+  </si>
+  <si>
+    <t>Mostafa</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>08:25:41</t>
-  </si>
-  <si>
-    <t>08:28:15</t>
-  </si>
-  <si>
-    <t>08:48:54</t>
-  </si>
-  <si>
-    <t>08:54:50</t>
+    <t>08:30:04</t>
   </si>
   <si>
     <t xml:space="preserve">11/05/2022 </t>
-  </si>
-  <si>
-    <t>08:29:07</t>
-  </si>
-  <si>
-    <t>08:48:05</t>
-  </si>
-  <si>
-    <t>08:55:19</t>
   </si>
 </sst>
 </file>
@@ -440,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -495,190 +474,16 @@
         <v>12</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
